--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SekouDRAME\Desktop\FLOT_KIA_GERVAIS\gestion_flotte_kia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3F6CC3-02DE-4549-AE9F-4471FE480CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD3D3E-9D9B-49A0-A2A3-AF9D02961E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>km_fin</t>
+  </si>
+  <si>
+    <t>statut</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,6 +395,9 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SekouDRAME\Desktop\FLOT_KIA_GERVAIS\gestion_flotte_kia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD3D3E-9D9B-49A0-A2A3-AF9D02961E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB90B73-9581-4C6D-A763-8B7DB601B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>statut</t>
+  </si>
+  <si>
+    <t>debut_kilometrage</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,6 +401,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
